--- a/notification_configs/02_manager_summary_notifications.xlsx
+++ b/notification_configs/02_manager_summary_notifications.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:T5" headerRowCount="1">
-  <autoFilter ref="A1:T5"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:Y5" headerRowCount="1">
+  <autoFilter ref="A1:Y5"/>
+  <tableColumns count="25">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Contact_Name"/>
@@ -148,6 +148,11 @@
     <tableColumn id="18" name="Active"/>
     <tableColumn id="19" name="Created_Date"/>
     <tableColumn id="20" name="Last_Modified"/>
+    <tableColumn id="21" name="Submitted_Count"/>
+    <tableColumn id="22" name="Pending_Count"/>
+    <tableColumn id="23" name="Pending_Approvals"/>
+    <tableColumn id="24" name="Completion_Rate"/>
+    <tableColumn id="25" name="Last_Updated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -442,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +475,11 @@
     <col width="8" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="21" customWidth="1" min="20" max="20"/>
+    <col width="17" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="17" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,6 +583,31 @@
           <t>Last_Modified</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Submitted_Count</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Pending_Count</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Pending_Approvals</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Completion_Rate</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Last_Updated</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -643,6 +678,9 @@
           <t>team_m001</t>
         </is>
       </c>
+      <c r="O2" t="n">
+        <v/>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -666,6 +704,23 @@
       <c r="T2" t="inlineStr">
         <is>
           <t>2025-09-14 11:23:42</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2025-09-16 23:18:05</t>
         </is>
       </c>
     </row>
@@ -738,6 +793,9 @@
           <t>team_m002</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -762,6 +820,21 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -833,6 +906,9 @@
           <t>team_m003</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v/>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -857,6 +933,21 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -928,6 +1019,9 @@
           <t>team_mtk34710</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -952,6 +1046,21 @@
         <is>
           <t>2025-09-14 11:23:42</t>
         </is>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/notification_configs/02_manager_summary_notifications.xlsx
+++ b/notification_configs/02_manager_summary_notifications.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:Y5" headerRowCount="1">
-  <autoFilter ref="A1:Y5"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:T4" headerRowCount="1">
+  <autoFilter ref="A1:T4"/>
+  <tableColumns count="20">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Contact_Name"/>
@@ -148,11 +148,6 @@
     <tableColumn id="18" name="Active"/>
     <tableColumn id="19" name="Created_Date"/>
     <tableColumn id="20" name="Last_Modified"/>
-    <tableColumn id="21" name="Submitted_Count"/>
-    <tableColumn id="22" name="Pending_Count"/>
-    <tableColumn id="23" name="Pending_Approvals"/>
-    <tableColumn id="24" name="Completion_Rate"/>
-    <tableColumn id="25" name="Last_Updated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -447,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,12 +450,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
@@ -475,11 +470,6 @@
     <col width="8" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="21" customWidth="1" min="20" max="20"/>
-    <col width="17" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="19" customWidth="1" min="23" max="23"/>
-    <col width="17" customWidth="1" min="24" max="24"/>
-    <col width="21" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -583,46 +573,21 @@
           <t>Last_Modified</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Submitted_Count</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Pending_Count</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Pending_Approvals</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Completion_Rate</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Last_Updated</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MGR_SUMMARY_M001_20250914</t>
+          <t>MGR_SUMMARY_M001_20250918</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sarah.johnson@attendo.com</t>
+          <t>alice.manager@attendo.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sarah Johnson</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -641,7 +606,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -670,7 +635,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Team Update: 4 team members need to submit their daily status</t>
+          <t>Team Update: 3 team members need to submit their daily status</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -678,9 +643,6 @@
           <t>team_m001</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v/>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -698,46 +660,29 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-09-16 23:18:05</t>
+          <t>2025-09-18 22:05:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MGR_SUMMARY_M002_20250914</t>
+          <t>MGR_SUMMARY_M002_20250918</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>michael.chen@attendo.com</t>
+          <t>bob.manager@attendo.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Michael Chen</t>
+          <t>Bob Chen</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -756,7 +701,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -785,7 +730,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Team Update: 2 team members need to submit their daily status</t>
+          <t>Team Update: 1 team members need to submit their daily status</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -793,9 +738,6 @@
           <t>team_m002</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -813,34 +755,19 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
+          <t>2025-09-18 22:05:12</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MGR_SUMMARY_M003_20250914</t>
+          <t>MGR_SUMMARY_M003_20250918</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -906,9 +833,6 @@
           <t>team_m003</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -926,141 +850,13 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MGR_SUMMARY_MTK34710_20250914</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>chandresh.kerkar1@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chandresh</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MTK34710</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Team MTK34710</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>TEAM_SUMMARY</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>12:00,14:00</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Team Update: 1 team members need to submit their daily status</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>team_mtk34710</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2025-09-14 11:23:42</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
+          <t>2025-09-18 22:05:12</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/notification_configs/02_manager_summary_notifications.xlsx
+++ b/notification_configs/02_manager_summary_notifications.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:T4" headerRowCount="1">
-  <autoFilter ref="A1:T4"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:Y4" headerRowCount="1">
+  <autoFilter ref="A1:Y4"/>
+  <tableColumns count="25">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Contact_Name"/>
@@ -148,6 +148,11 @@
     <tableColumn id="18" name="Active"/>
     <tableColumn id="19" name="Created_Date"/>
     <tableColumn id="20" name="Last_Modified"/>
+    <tableColumn id="21" name="Submitted_Count"/>
+    <tableColumn id="22" name="Pending_Count"/>
+    <tableColumn id="23" name="Pending_Approvals"/>
+    <tableColumn id="24" name="Completion_Rate"/>
+    <tableColumn id="25" name="Last_Updated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -442,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +475,11 @@
     <col width="8" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="21" customWidth="1" min="20" max="20"/>
+    <col width="17" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="17" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,11 +583,36 @@
           <t>Last_Modified</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Submitted_Count</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Pending_Count</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Pending_Approvals</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Completion_Rate</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Last_Updated</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MGR_SUMMARY_M001_20250918</t>
+          <t>MGR_SUMMARY_M001_20250919</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -606,7 +641,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -635,7 +670,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Team Update: 3 team members need to submit their daily status</t>
+          <t>Team Update: 4 team members need to submit their daily status</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -643,6 +678,9 @@
           <t>team_m001</t>
         </is>
       </c>
+      <c r="O2" t="n">
+        <v/>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -660,19 +698,34 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
-        </is>
+          <t>2025-09-19 00:05:09</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="n">
+        <v/>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MGR_SUMMARY_M002_20250918</t>
+          <t>MGR_SUMMARY_M002_20250919</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -738,6 +791,9 @@
           <t>team_m002</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -755,19 +811,36 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
+          <t>2025-09-19 00:05:09</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-09-19 00:07:52</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MGR_SUMMARY_M003_20250918</t>
+          <t>MGR_SUMMARY_M003_20250919</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -833,6 +906,9 @@
           <t>team_m003</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v/>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -850,13 +926,28 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2025-09-18 22:05:12</t>
-        </is>
+          <t>2025-09-19 00:05:09</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/notification_configs/02_manager_summary_notifications.xlsx
+++ b/notification_configs/02_manager_summary_notifications.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:Y4" headerRowCount="1">
-  <autoFilter ref="A1:Y4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:Y3" headerRowCount="1">
+  <autoFilter ref="A1:Y3"/>
   <tableColumns count="25">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Team Update: 4 team members need to submit their daily status</t>
+          <t>Team Update: 2 team members need to submit their daily status</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -703,44 +703,46 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-19 00:05:09</t>
+          <t>2025-09-19 00:47:04</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v/>
-      </c>
-      <c r="Y2" t="n">
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2025-09-19 01:06:06</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MGR_SUMMARY_M002_20250919</t>
+          <t>MGR_SUMMARY_M003_20250919</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bob.manager@attendo.com</t>
+          <t>carol.manager@attendo.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bob Chen</t>
+          <t>Carol Davis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -750,7 +752,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Team M002</t>
+          <t>Team M003</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -788,7 +790,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>team_m002</t>
+          <t>team_m003</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -816,137 +818,22 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-19 00:05:09</t>
+          <t>2025-09-19 00:47:04</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="X3" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-09-19 00:07:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MGR_SUMMARY_M003_20250919</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>carol.manager@attendo.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Carol Davis</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Team M003</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>TEAM_SUMMARY</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>12:00,14:00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Team Update: 1 team members need to submit their daily status</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>team_m003</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
         <v/>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>EMAIL,TEAMS</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2025-09-19</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>2025-09-19 00:05:09</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
+      <c r="Y3" t="n">
         <v/>
       </c>
     </row>

--- a/notification_configs/02_manager_summary_notifications.xlsx
+++ b/notification_configs/02_manager_summary_notifications.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:Y3" headerRowCount="1">
-  <autoFilter ref="A1:Y3"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:T3" headerRowCount="1">
+  <autoFilter ref="A1:T3"/>
+  <tableColumns count="20">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Contact_Name"/>
@@ -148,11 +148,6 @@
     <tableColumn id="18" name="Active"/>
     <tableColumn id="19" name="Created_Date"/>
     <tableColumn id="20" name="Last_Modified"/>
-    <tableColumn id="21" name="Submitted_Count"/>
-    <tableColumn id="22" name="Pending_Count"/>
-    <tableColumn id="23" name="Pending_Approvals"/>
-    <tableColumn id="24" name="Completion_Rate"/>
-    <tableColumn id="25" name="Last_Updated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -447,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,11 +470,6 @@
     <col width="8" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="21" customWidth="1" min="20" max="20"/>
-    <col width="17" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="19" customWidth="1" min="23" max="23"/>
-    <col width="17" customWidth="1" min="24" max="24"/>
-    <col width="21" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -583,31 +573,6 @@
           <t>Last_Modified</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Submitted_Count</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Pending_Count</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Pending_Approvals</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Completion_Rate</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Last_Updated</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -678,9 +643,6 @@
           <t>team_m001</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v/>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -703,24 +665,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-19 00:47:04</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-09-19 01:06:06</t>
+          <t>2025-09-19 01:15:03</t>
         </is>
       </c>
     </row>
@@ -793,9 +738,6 @@
           <t>team_m003</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -818,23 +760,8 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-19 00:47:04</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
+          <t>2025-09-19 01:15:03</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/notification_configs/02_manager_summary_notifications.xlsx
+++ b/notification_configs/02_manager_summary_notifications.xlsx
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:T3" headerRowCount="1">
-  <autoFilter ref="A1:T3"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ManagerSummaryNotifications" displayName="ManagerSummaryNotifications" ref="A1:Y3" headerRowCount="1">
+  <autoFilter ref="A1:Y3"/>
+  <tableColumns count="25">
     <tableColumn id="1" name="Primary_Key"/>
     <tableColumn id="2" name="Contact_Email"/>
     <tableColumn id="3" name="Contact_Name"/>
@@ -148,6 +148,11 @@
     <tableColumn id="18" name="Active"/>
     <tableColumn id="19" name="Created_Date"/>
     <tableColumn id="20" name="Last_Modified"/>
+    <tableColumn id="21" name="Submitted_Count"/>
+    <tableColumn id="22" name="Pending_Count"/>
+    <tableColumn id="23" name="Pending_Approvals"/>
+    <tableColumn id="24" name="Completion_Rate"/>
+    <tableColumn id="25" name="Last_Updated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -442,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +475,11 @@
     <col width="8" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="21" customWidth="1" min="20" max="20"/>
+    <col width="17" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="17" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,6 +583,31 @@
           <t>Last_Modified</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Submitted_Count</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Pending_Count</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Pending_Approvals</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Completion_Rate</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Last_Updated</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -643,6 +678,9 @@
           <t>team_m001</t>
         </is>
       </c>
+      <c r="O2" t="n">
+        <v/>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -665,7 +703,24 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-09-19 01:15:03</t>
+          <t>2025-09-19 01:30:36</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2025-09-19 01:34:59</t>
         </is>
       </c>
     </row>
@@ -738,6 +793,9 @@
           <t>team_m003</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>EMAIL,TEAMS</t>
@@ -760,8 +818,23 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2025-09-19 01:15:03</t>
-        </is>
+          <t>2025-09-19 01:30:36</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
